--- a/References Link Shared.xlsx
+++ b/References Link Shared.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Codekata" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>QN9608 - Passing styles as props</t>
   </si>
@@ -71,13 +71,47 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/50752350/page-not-found-when-trying-to-access-a-site-deployed-on-netlify</t>
+  </si>
+  <si>
+    <t>install Mui</t>
+  </si>
+  <si>
+    <t>npm install --save react@16.13.0 react-dom@16.13.0
+npm install @material-ui/core
+npm install @material-ui/icons</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/70380801/how-to-use-create-react-app-with-windows-7</t>
+  </si>
+  <si>
+    <t>react app install in windows 7</t>
+  </si>
+  <si>
+    <t>npx create-react-app@3.4.0 my-app</t>
+  </si>
+  <si>
+    <t>https://www.pastiebin.com/62c01db219d49</t>
+  </si>
+  <si>
+    <t>Write a code to generate a hollow rectangle using stars. 
+Input Description:
+Given an integer R indicates no of rows and an integer C indicates no of columns.
+Where 1&lt;=R&lt;=100 and Where 1&lt;=C&lt;=100.
+Output Description:
+Print the hollow rectangle using stars with R rows and C columns.
+Sample Input :
+3 5
+Sample Output :
+* * * * *
+*          *
+* * * * *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +151,23 @@
       <color rgb="FF262631"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--ff-mono)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF232629"/>
+      <name val="Var(--ff-mono)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -161,6 +212,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,20 +526,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="99.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="91.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="50.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -507,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -515,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -523,7 +587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -531,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -539,12 +603,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="38.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="63.75">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -555,13 +638,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="112.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="201.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -571,7 +669,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
